--- a/static/docs/02_variables.xlsx
+++ b/static/docs/02_variables.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\ku\CPS\static\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\OneDrive\Desktop\project2\CPS\static\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_050530555D5C8E582773C477296382946AB30CA1" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{61BC5572-0AD6-4672-A911-FDE676904B47}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="1733" yWindow="1995" windowWidth="17632" windowHeight="9645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Column Info" sheetId="3" r:id="rId1"/>
@@ -309,7 +310,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -460,7 +461,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -608,7 +615,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Population = sum(PWSSWGT) by HRMONTH and HRYEAR4</a:t>
+            <a:t>Population = sum(PWSSWGT) by HRMONTH and HRYEAR4 </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -899,18 +906,6 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t/>
-          </a:r>
           <a:br>
             <a:rPr lang="en-US" sz="1400" b="0" i="0">
               <a:solidFill>
@@ -957,18 +952,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
           </a:br>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t/>
-          </a:r>
           <a:br>
             <a:rPr lang="en-US" sz="1400" b="0" i="0">
               <a:solidFill>
@@ -1435,25 +1418,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="2"/>
-    <col min="4" max="4" width="49.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22.77734375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="14.1328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.1328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.86328125" style="2"/>
+    <col min="4" max="4" width="49.1328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.796875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="26.46484375" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.86328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -1467,7 +1450,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
@@ -1478,7 +1461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -1489,7 +1472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
@@ -1500,7 +1483,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
@@ -1511,7 +1494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="115.8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="114.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
@@ -1525,7 +1508,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="245.4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="243" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="7" t="s">
         <v>13</v>
       </c>
@@ -1539,7 +1522,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="259.8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="257.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="9" t="s">
         <v>25</v>
       </c>
@@ -1559,7 +1542,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="8" t="s">
         <v>19</v>
       </c>
@@ -1570,7 +1553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -1588,14 +1571,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
